--- a/data/outputs/OR_elsevier/61.xlsx
+++ b/data/outputs/OR_elsevier/61.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS51"/>
+  <dimension ref="A1:BU51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84939891067</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84923675851</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1366,6 +1388,12 @@
         <is>
           <t>2-s2.0-84934435270</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84939882005</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1823,12 @@
           <t>2-s2.0-84944173328</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2012,6 +2052,12 @@
           <t>2-s2.0-84944150732</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2223,6 +2269,12 @@
           <t>2-s2.0-84934438299</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2438,6 +2490,12 @@
           <t>2-s2.0-84934442252</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84939881744</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2884,6 +2948,12 @@
           <t>2-s2.0-84939884841</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3095,6 +3165,12 @@
           <t>2-s2.0-84939879305</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3310,6 +3386,12 @@
           <t>2-s2.0-84944169998</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3532,6 +3614,12 @@
         <is>
           <t>2-s2.0-84939874426</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3740,6 +3828,12 @@
           <t>2-s2.0-84925535479</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3955,6 +4049,12 @@
           <t>2-s2.0-84939891760</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4170,6 +4270,12 @@
           <t>2-s2.0-85027925394</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4384,6 +4490,12 @@
         <is>
           <t>2-s2.0-84934434524</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4588,6 +4700,12 @@
           <t>2-s2.0-84934437695</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4798,6 +4916,12 @@
         <is>
           <t>2-s2.0-84896422843</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -5006,6 +5130,12 @@
           <t>2-s2.0-84925488244</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5232,6 +5362,12 @@
         <is>
           <t>2-s2.0-84944178254</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -5444,6 +5580,12 @@
           <t>2-s2.0-84934444380</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5658,6 +5800,12 @@
         <is>
           <t>2-s2.0-84934441693</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -5862,6 +6010,12 @@
           <t>2-s2.0-84925495965</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6077,6 +6231,12 @@
           <t>2-s2.0-84897121525</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6296,6 +6456,12 @@
           <t>2-s2.0-84944171414</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6515,6 +6681,12 @@
           <t>2-s2.0-84944180047</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6730,6 +6902,12 @@
           <t>2-s2.0-84944055221</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6949,6 +7127,12 @@
           <t>2-s2.0-84934292314</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7164,6 +7348,12 @@
           <t>2-s2.0-84934443825</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7379,6 +7569,12 @@
           <t>2-s2.0-84934436235</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7590,6 +7786,12 @@
           <t>2-s2.0-84934444492</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7809,6 +8011,12 @@
           <t>2-s2.0-84934439915</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8023,6 +8231,12 @@
         <is>
           <t>2-s2.0-84934274278</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -8231,6 +8445,12 @@
           <t>2-s2.0-84939887038</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8437,6 +8657,12 @@
         <is>
           <t>2-s2.0-84958184006</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -8633,6 +8859,12 @@
           <t>2-s2.0-84925483109</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8832,6 +9064,12 @@
           <t>2-s2.0-84925541266</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9042,6 +9280,12 @@
         <is>
           <t>2-s2.0-84944060033</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9242,6 +9486,12 @@
           <t>2-s2.0-84944041659</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9445,6 +9695,12 @@
           <t>2-s2.0-84944040438</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9644,6 +9900,12 @@
           <t>2-s2.0-84944042505</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9847,6 +10109,12 @@
           <t>2-s2.0-84944041488</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10046,6 +10314,12 @@
           <t>2-s2.0-84944059806</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10241,6 +10515,12 @@
           <t>2-s2.0-84934440057</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10443,6 +10723,12 @@
         <is>
           <t>2-s2.0-84934440086</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -10643,6 +10929,12 @@
           <t>2-s2.0-84934439936</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10846,6 +11138,12 @@
           <t>2-s2.0-84934436985</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11060,6 +11358,12 @@
         <is>
           <t>2-s2.0-84934437339</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -11268,6 +11572,12 @@
           <t>2-s2.0-84934438864</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
